--- a/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_animal_02_act.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_animal_02_act.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.14000000000033</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.754152378907747e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.04587935425283e-16</v>
+        <v>7.317117550897406e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>396.3782514562329</v>
+        <v>535.2267947162426</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[321.04003889544015, 471.7164640170256]</t>
+          <t>[377.68545930394953, 692.7681301285356]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.684144349122789e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.912192465497052e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.704447665911579</v>
+        <v>2.144710900648889</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 1.9057108589343486]</t>
+          <t>[1.8679740102425804, 2.421447791055197]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>747.7014477058622</v>
+        <v>781.6150962990639</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[700.7570666315048, 794.6458287802195]</t>
+          <t>[699.5290729246699, 863.7011196734579]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.59151151151175</v>
+        <v>15.99223223223246</v>
       </c>
       <c r="X2" t="n">
-        <v>16.81825825825849</v>
+        <v>14.92284284284306</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.36476476476502</v>
+        <v>17.06162162162187</v>
       </c>
     </row>
     <row r="3">
@@ -645,14 +645,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.04587935425283e-16</v>
+        <v>4.989766402809693e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>543.8946201628057</v>
+        <v>249.4754662368658</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[508.5452122861543, 579.2440280394571]</t>
+          <t>[200.29626087150325, 298.6546716022283]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.402552876377424</v>
+        <v>2.484342538874811</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.339658128557808, 1.46544762419704]</t>
+          <t>[2.283079345852041, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>818.4621759037524</v>
+        <v>731.4380143936773</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[796.6419303683145, 840.2824214391902]</t>
+          <t>[705.7761632240703, 757.0998655632844]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.54166166166189</v>
+        <v>14.42586586586604</v>
       </c>
       <c r="X3" t="n">
-        <v>18.30272272272295</v>
+        <v>13.66158158158175</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.78060060060083</v>
+        <v>15.19015015015034</v>
       </c>
     </row>
     <row r="4">
@@ -726,60 +726,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.788461992946466e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>3.04587935425283e-16</v>
+        <v>3.502495947018784e-07</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>277.6912405737013</v>
+        <v>125.2990594716739</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[244.0952063944851, 311.2872747529175]</t>
+          <t>[71.77356901497711, 178.8245499283707]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.426034240807454e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.426034240807454e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.3018947895341544</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, -0.17610529389492324]</t>
+          <t>[0.735868549489501, 1.74218451460335]</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>3.078736154904504e-06</v>
+        <v>1.767423148946179e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>3.078736154904504e-06</v>
+        <v>1.767423148946179e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>615.454317315633</v>
+        <v>743.4172392807579</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[595.361895569142, 635.5467390621241]</t>
+          <t>[712.6704207473376, 774.1640578141782]</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.138258258258272</v>
+        <v>19.05853853853876</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6639839839839918</v>
+        <v>17.15743743743763</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.612532532532552</v>
+        <v>20.95963963963988</v>
       </c>
     </row>
     <row r="5">
@@ -807,14 +807,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4_hypo_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.61000000000025</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -823,16 +823,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H5" t="n">
-        <v>3.04587935425283e-16</v>
+        <v>4.989766402809693e-16</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>372.8881095689967</v>
+        <v>450.7269942963157</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[326.26881987995586, 419.50739925803754]</t>
+          <t>[392.0594222221247, 509.3945663705067]</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -842,11 +842,11 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.283052855520156</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[-1.4214213007233099, -1.1446844103170015]</t>
+          <t>[-2.7296320553713116, -2.47805306409285]</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -856,11 +856,11 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>686.0491033777523</v>
+        <v>475.8716733992901</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[659.717200306389, 712.3810064491156]</t>
+          <t>[445.1047416910316, 506.6386051075486]</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -870,94 +870,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>4.821261261261313</v>
+        <v>10.0039639639641</v>
       </c>
       <c r="X5" t="n">
-        <v>4.301321321321367</v>
+        <v>9.520680680680815</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.341201201201259</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.04587935425283e-16</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>257.1454961173028</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[214.79715885575058, 299.493833378855]</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-2.100684577175157</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[-2.264210921506157, -1.9371582328441566]</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>590.7757764721753</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>[567.9700176668628, 613.5815352774878]</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.873573573573653</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.260660660660734</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.486486486486573</v>
+        <v>10.48724724724739</v>
       </c>
     </row>
   </sheetData>
